--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excelDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C8DA3-55C0-4871-A14C-FDD133FDD027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108537B4-2DD3-450A-99B5-BC65F3F9BA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Hello</t>
   </si>
@@ -36,13 +36,22 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Hello1</t>
-  </si>
-  <si>
-    <t>There1</t>
-  </si>
-  <si>
-    <t>Test1</t>
+    <t>New</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>Hello2</t>
+  </si>
+  <si>
+    <t>There2</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,12 +390,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excelDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108537B4-2DD3-450A-99B5-BC65F3F9BA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAEB255-CC1E-43F7-9806-9136B74A2573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Hello</t>
   </si>
@@ -36,15 +36,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
     <t>Hello2</t>
   </si>
   <si>
@@ -52,6 +43,18 @@
   </si>
   <si>
     <t>Test2</t>
+  </si>
+  <si>
+    <t>here2</t>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>New2</t>
+  </si>
+  <si>
+    <t>blah</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,24 +393,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
